--- a/biology/Zoologie/Caenis_horaria/Caenis_horaria.xlsx
+++ b/biology/Zoologie/Caenis_horaria/Caenis_horaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caenis horaria est une espèce d'insectes appartenant à l'ordre des éphéméroptères.
 Caenis horaria est, d'après les plus récentes classifications, le même insecte que Caenis dimidiata (Stephens, 1835), Caenis lactea sensu (Pictet, 1845) et Caenis lactella (Eaton, 1884).
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nymphe :
 5 mm pour le corps,
@@ -549,7 +563,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Caenis horaria est très répandue en Europe, tout particulièrement à partir du cours moyen des grandes rivières à cours lent. Se trouve également dans des lacs.
 </t>
@@ -580,7 +596,9 @@
           <t>Éclosion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De fin juin à mi-septembre, en vols très fournis, toujours du coucher du soleil à la nuit noire.
 Sur les autres projets Wikimedia :
